--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1936005.352760732</v>
+        <v>1934117.77124433</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,13 +668,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>293.9557741331907</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>125.3827560511991</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>52.10844059186255</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>310.2043208168249</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>85.87170836083649</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,19 +1136,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>168.9845586665118</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>188.3401863080892</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544548</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>146.2787299119461</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>197.1444647762785</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274077</v>
@@ -1765,16 +1765,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>21.21224374176616</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>222.2435721011138</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>83.63630303086835</v>
+        <v>210.7852244112699</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,16 +2296,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>137.1258676854696</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>25.37433807241382</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>36.59669811656386</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>157.2425576766698</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002171</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750033</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965527</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801197</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437405</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897893</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357149</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752357</v>
+        <v>54.76109577523561</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>130.3115003022696</v>
+        <v>128.4093599296567</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898772</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
         <v>42.2873553346313</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
         <v>42.2873553346313</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.54646147304</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C2" t="n">
-        <v>1993.54646147304</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D2" t="n">
-        <v>1635.28076286629</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>1249.492510268045</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2570.499842481658</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2351.86517545372</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2098.103390091812</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2098.103390091812</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>1745.334734821698</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4519,19 +4519,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1487.242648509747</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>1118.280131569335</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>760.0144329625848</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>374.2261803643406</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>367.2806796151371</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4598,19 +4598,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="X5" t="n">
-        <v>1873.842488573869</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y5" t="n">
-        <v>1873.842488573869</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="6">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4759,16 +4759,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>641.3898848520539</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>351.9727148150933</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X7" t="n">
-        <v>351.9727148150933</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>351.9727148150933</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1018.50628101231</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>649.5437640718981</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>649.5437640718981</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>649.5437640718981</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>642.5982633226946</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>224.6344552208815</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,10 +4820,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2275.700301430472</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2275.700301430472</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>1944.637414086902</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="X8" t="n">
-        <v>1408.645612988121</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="Y8" t="n">
-        <v>1018.50628101231</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064343</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5027,10 +5027,10 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>244.9733843006353</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C13" t="n">
         <v>97.21709146028584</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V13" t="n">
-        <v>755.183133481126</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W13" t="n">
-        <v>465.7659634441654</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="X13" t="n">
-        <v>465.7659634441654</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y13" t="n">
-        <v>244.9733843006353</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="14">
@@ -5258,19 +5258,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5285,7 +5285,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>437.6964226305955</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C16" t="n">
-        <v>268.7602397026886</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D16" t="n">
-        <v>118.6436002903529</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5443,13 +5443,13 @@
         <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>986.0022165609661</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655735</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286129</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X16" t="n">
-        <v>437.6964226305955</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y16" t="n">
-        <v>437.6964226305955</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="17">
@@ -5501,46 +5501,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5589,7 +5589,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>244.1070389581962</v>
+        <v>394.2236783705319</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>394.2236783705319</v>
       </c>
       <c r="D19" t="n">
         <v>244.1070389581962</v>
@@ -5659,16 +5659,16 @@
         <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1190.649741174814</v>
+        <v>1086.081892381262</v>
       </c>
       <c r="V19" t="n">
-        <v>935.9652529689267</v>
+        <v>1086.081892381262</v>
       </c>
       <c r="W19" t="n">
-        <v>646.5480829319661</v>
+        <v>796.6647223443017</v>
       </c>
       <c r="X19" t="n">
-        <v>646.5480829319661</v>
+        <v>796.6647223443017</v>
       </c>
       <c r="Y19" t="n">
-        <v>425.7555037884359</v>
+        <v>575.8721432007716</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805473</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5765,37 +5765,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,34 +5817,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>245.1301850426789</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C22" t="n">
-        <v>245.1301850426789</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5911,49 +5911,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>786.082206476519</v>
+        <v>986.0022165609658</v>
       </c>
       <c r="V22" t="n">
-        <v>647.5712290164487</v>
+        <v>731.317728355079</v>
       </c>
       <c r="W22" t="n">
-        <v>647.5712290164487</v>
+        <v>441.9005583181182</v>
       </c>
       <c r="X22" t="n">
-        <v>647.5712290164487</v>
+        <v>441.9005583181182</v>
       </c>
       <c r="Y22" t="n">
-        <v>426.7786498729185</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
@@ -5975,64 +5975,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>303.1196361220956</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>134.1834531941887</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>134.1834531941887</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>134.1834531941887</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>134.1834531941887</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1340.085404217832</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1050.956765431391</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V25" t="n">
-        <v>796.2722772255036</v>
+        <v>820.5263570570735</v>
       </c>
       <c r="W25" t="n">
-        <v>506.8551071885429</v>
+        <v>531.1091870201129</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8655562905255</v>
+        <v>303.1196361220956</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>303.1196361220956</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,40 +6215,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,19 +6257,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028599</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028599</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028599</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028599</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028587</v>
@@ -6382,22 +6382,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
         <v>1158.436939387593</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011509</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V28" t="n">
         <v>614.6238123952639</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583033</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028599</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028599</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6549,13 +6549,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>472.9363657332773</v>
+        <v>600.7453191938781</v>
       </c>
       <c r="C31" t="n">
-        <v>359.7610480867412</v>
+        <v>487.5700015473417</v>
       </c>
       <c r="D31" t="n">
-        <v>265.4052739557762</v>
+        <v>487.5700015473417</v>
       </c>
       <c r="E31" t="n">
-        <v>265.4052739557762</v>
+        <v>395.4177732463195</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557762</v>
+        <v>304.2886910297801</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569676</v>
+        <v>191.8742346309717</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667514</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.6688721962058</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356662001</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737485</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818933</v>
+        <v>902.680428981895</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652468</v>
+        <v>730.4517433652486</v>
       </c>
       <c r="Y31" t="n">
-        <v>598.8239652821462</v>
+        <v>600.7453191938781</v>
       </c>
     </row>
     <row r="32">
@@ -6677,46 +6677,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6725,22 +6725,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108339</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
         <v>559.3441472229671</v>
@@ -6841,40 +6841,40 @@
         <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384657</v>
@@ -6883,25 +6883,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045215</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010325</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
@@ -6935,13 +6935,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515098</v>
@@ -6962,25 +6962,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
         <v>559.3441472229671</v>
@@ -7078,16 +7078,16 @@
         <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
@@ -7096,19 +7096,19 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
         <v>1932.236826184156</v>
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,43 +7160,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,31 +7351,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7385,61 +7385,61 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7476,28 +7476,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
         <v>320.8847398504512</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7822,7 +7822,7 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
         <v>2038.520840384657</v>
@@ -7831,25 +7831,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>288.4091825776751</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298203</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>20.96809118668176</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>89.37853356031249</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,16 +23653,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>125.221718904803</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23704,13 +23704,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>29.89407122271419</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23938,16 +23938,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>202.601049367709</v>
+        <v>75.45212798730748</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>115.0117756383584</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>193.210315279681</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>129.8968703468138</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>64.30500338171949</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,10 +24649,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338612</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338599</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965516</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897904</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.2159888357148</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>33.06989642126814</v>
+        <v>34.97203679388085</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>881650.7453192545</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>881650.7453192546</v>
+        <v>881650.7453192545</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>916395.5160558893</v>
+        <v>916395.5160558892</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>924532.7607470069</v>
+        <v>924532.760747007</v>
       </c>
     </row>
     <row r="15">
@@ -26329,7 +26329,7 @@
         <v>508337.7776590215</v>
       </c>
       <c r="H2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590218</v>
       </c>
       <c r="I2" t="n">
         <v>508337.7776590215</v>
@@ -26347,13 +26347,13 @@
         <v>533677.1504117844</v>
       </c>
       <c r="N2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="O2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="P2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117844</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,19 +26381,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284575</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086688</v>
+        <v>10342.9068008668</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.60530284578</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="G4" t="n">
         <v>22174.60758687072</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>22174.60758687075</v>
+      </c>
+      <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="H4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22174.60758687068</v>
-      </c>
       <c r="J4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106725</v>
+        <v>40339.2301010673</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="M4" t="n">
         <v>44593.3948281912</v>
       </c>
       <c r="N4" t="n">
+        <v>44593.39482819121</v>
+      </c>
+      <c r="O4" t="n">
+        <v>44593.39482819124</v>
+      </c>
+      <c r="P4" t="n">
         <v>44593.3948281912</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44593.3948281912</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44593.39482819119</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26482,19 +26482,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26503,13 +26503,13 @@
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26528,25 +26528,25 @@
         <v>285185.2045618508</v>
       </c>
       <c r="E6" t="n">
-        <v>-130984.1923534618</v>
+        <v>-131081.651479434</v>
       </c>
       <c r="F6" t="n">
-        <v>394175.8441234342</v>
+        <v>394078.384997462</v>
       </c>
       <c r="G6" t="n">
-        <v>394175.8441234342</v>
+        <v>394078.384997462</v>
       </c>
       <c r="H6" t="n">
-        <v>394175.844123434</v>
+        <v>394078.3849974623</v>
       </c>
       <c r="I6" t="n">
-        <v>394175.8441234342</v>
+        <v>394078.384997462</v>
       </c>
       <c r="J6" t="n">
-        <v>217752.6249308411</v>
+        <v>217655.1658048688</v>
       </c>
       <c r="K6" t="n">
-        <v>347738.7346147164</v>
+        <v>347720.2408767819</v>
       </c>
       <c r="L6" t="n">
         <v>381025.742962701</v>
@@ -26555,13 +26555,13 @@
         <v>256567.6345297306</v>
       </c>
       <c r="N6" t="n">
-        <v>391368.6497635677</v>
+        <v>391368.6497635678</v>
       </c>
       <c r="O6" t="n">
-        <v>391368.6497635677</v>
+        <v>391368.649763568</v>
       </c>
       <c r="P6" t="n">
-        <v>347206.0444607222</v>
+        <v>347206.044460722</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26753,28 +26753,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="L2" t="n">
-        <v>12.9286335010836</v>
+        <v>12.9286335010835</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855722</v>
       </c>
     </row>
     <row r="3">
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855719</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>112.9202716085207</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>49.03295675777244</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27540,19 +27540,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>96.50703242634981</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27591,13 +27591,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>103.5798492039701</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>53.30008710312387</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>166.2659349629915</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>243.2051448974512</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,19 +27856,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>154.9382140978453</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>28.10813404956858</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831824</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855719</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855719</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,31 +32637,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P17" t="n">
         <v>570.6060255109123</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36768,10 +36768,10 @@
         <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>598.8335596281414</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412262</v>
+        <v>67.71102679412272</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
         <v>291.44060814916</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043185</v>
+        <v>94.42895660043195</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414415</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37464,7 +37464,7 @@
         <v>80.63966029520621</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414415</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37561,10 +37561,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,16 +37628,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,16 +37865,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
